--- a/reports/abnormal_table_20251023.xlsx
+++ b/reports/abnormal_table_20251023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,10 @@
         <v>4510</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9984662576687117</v>
+        <v>1.526073619631902</v>
       </c>
       <c r="H2" t="n">
-        <v>285.1477559111714</v>
+        <v>285.3695277500336</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>456</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2314410480349345</v>
+        <v>-0.3876651982378855</v>
       </c>
       <c r="H3" t="n">
-        <v>66.86287137513843</v>
+        <v>67.02845405116531</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -576,10 +576,10 @@
         <v>592</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2314410480349345</v>
+        <v>-0.3876651982378855</v>
       </c>
       <c r="H4" t="n">
-        <v>66.86287137513843</v>
+        <v>67.02845405116531</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>647</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.394117647058823</v>
+        <v>-1.864705882352941</v>
       </c>
       <c r="H5" t="n">
-        <v>67.84234221447429</v>
+        <v>67.96448290323053</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>321</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.394117647058823</v>
+        <v>-1.864705882352941</v>
       </c>
       <c r="H6" t="n">
-        <v>67.84234221447429</v>
+        <v>67.96448290323053</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>454</v>
       </c>
       <c r="G7" t="n">
-        <v>1.028776978417266</v>
+        <v>0.9747292418772563</v>
       </c>
       <c r="H7" t="n">
-        <v>165.8575110458974</v>
+        <v>166.1543810574438</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>517</v>
       </c>
       <c r="G8" t="n">
-        <v>1.028776978417266</v>
+        <v>0.9747292418772563</v>
       </c>
       <c r="H8" t="n">
-        <v>165.8575110458974</v>
+        <v>166.1543810574438</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>722</v>
       </c>
       <c r="G9" t="n">
-        <v>1.028776978417266</v>
+        <v>0.9747292418772563</v>
       </c>
       <c r="H9" t="n">
-        <v>165.8575110458974</v>
+        <v>166.1543810574438</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06069364161849711</v>
+        <v>0.08115942028985507</v>
       </c>
       <c r="H10" t="n">
-        <v>39.52770906421586</v>
+        <v>39.51338187866289</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>118</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06069364161849711</v>
+        <v>0.08115942028985507</v>
       </c>
       <c r="H11" t="n">
-        <v>39.52770906421586</v>
+        <v>39.51338187866289</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -833,33 +833,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>台化</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中國信託</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>376</v>
+        <v>1710</v>
       </c>
       <c r="E12" t="n">
-        <v>825</v>
+        <v>3499</v>
       </c>
       <c r="F12" t="n">
-        <v>449</v>
+        <v>1789</v>
       </c>
       <c r="G12" t="n">
-        <v>2.107296137339056</v>
+        <v>2.150515463917526</v>
       </c>
       <c r="H12" t="n">
-        <v>121.6590472704099</v>
+        <v>185.4201840514116</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -868,33 +868,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>台新證券</t>
+          <t>合庫</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>863</v>
+        <v>643</v>
       </c>
       <c r="F13" t="n">
-        <v>863</v>
+        <v>643</v>
       </c>
       <c r="G13" t="n">
-        <v>2.107296137339056</v>
+        <v>4.767045454545454</v>
       </c>
       <c r="H13" t="n">
-        <v>121.6590472704099</v>
+        <v>117.5048071688653</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -903,33 +903,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台化</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>合庫證券</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3499</v>
+        <v>643</v>
       </c>
       <c r="F14" t="n">
-        <v>1789</v>
+        <v>643</v>
       </c>
       <c r="G14" t="n">
-        <v>1.957055214723926</v>
+        <v>4.767045454545454</v>
       </c>
       <c r="H14" t="n">
-        <v>184.6728393083177</v>
+        <v>117.5048071688653</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -938,33 +938,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>新紡</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>合庫</t>
+          <t>凱基-城中</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>643</v>
+        <v>433</v>
       </c>
       <c r="F15" t="n">
-        <v>643</v>
+        <v>328</v>
       </c>
       <c r="G15" t="n">
-        <v>4.834285714285715</v>
+        <v>1.661290322580645</v>
       </c>
       <c r="H15" t="n">
-        <v>117.8385851538761</v>
+        <v>71.40531815350212</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -973,33 +973,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>濱川</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>合庫證券</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="F16" t="n">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="G16" t="n">
-        <v>4.834285714285715</v>
+        <v>-0.8920454545454546</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8385851538761</v>
+        <v>52.56598296365308</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1008,33 +1008,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新紡</t>
+          <t>濱川</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>凱基-城中</t>
+          <t>華南永昌</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>-200</v>
       </c>
       <c r="E17" t="n">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="F17" t="n">
-        <v>328</v>
+        <v>572</v>
       </c>
       <c r="G17" t="n">
-        <v>1.661290322580645</v>
+        <v>-0.8920454545454546</v>
       </c>
       <c r="H17" t="n">
-        <v>71.40531815350212</v>
+        <v>52.56598296365308</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1043,12 +1043,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>濱川</t>
+          <t>亞德客-KY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>498</v>
+        <v>305</v>
       </c>
       <c r="F18" t="n">
-        <v>498</v>
+        <v>305</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.875</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>52.56154216045904</v>
+        <v>86.00166111352567</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1078,33 +1078,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>濱川</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>華南永昌</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-200</v>
+        <v>-1162</v>
       </c>
       <c r="E19" t="n">
-        <v>372</v>
+        <v>921</v>
       </c>
       <c r="F19" t="n">
-        <v>572</v>
+        <v>2083</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.875</v>
+        <v>-0.3672413793103448</v>
       </c>
       <c r="H19" t="n">
-        <v>52.56154216045904</v>
+        <v>129.721934429647</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1113,33 +1113,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>亞德客-KY</t>
+          <t>台玻</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="E20" t="n">
-        <v>305</v>
+        <v>2400</v>
       </c>
       <c r="F20" t="n">
-        <v>305</v>
+        <v>1875</v>
       </c>
       <c r="G20" t="n">
-        <v>10.73333333333333</v>
+        <v>-0.3672413793103448</v>
       </c>
       <c r="H20" t="n">
-        <v>83.91872485299322</v>
+        <v>129.721934429647</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1158,23 +1158,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>凱基-台北</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1162</v>
+        <v>-334</v>
       </c>
       <c r="E21" t="n">
-        <v>921</v>
+        <v>978</v>
       </c>
       <c r="F21" t="n">
-        <v>2083</v>
+        <v>1312</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7418244406196214</v>
+        <v>-0.3672413793103448</v>
       </c>
       <c r="H21" t="n">
-        <v>129.7480002747108</v>
+        <v>129.721934429647</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1183,12 +1183,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>榮成</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2400</v>
+        <v>888</v>
       </c>
       <c r="F22" t="n">
-        <v>1875</v>
+        <v>888</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.7418244406196214</v>
+        <v>-3.426966292134832</v>
       </c>
       <c r="H22" t="n">
-        <v>129.7480002747108</v>
+        <v>121.1381886014368</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1218,33 +1218,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台玻</t>
+          <t>上銀</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>大和國泰</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-334</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>978</v>
+        <v>319</v>
       </c>
       <c r="F23" t="n">
-        <v>1312</v>
+        <v>319</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.7418244406196214</v>
+        <v>1.792</v>
       </c>
       <c r="H23" t="n">
-        <v>129.7480002747108</v>
+        <v>57.80561084498018</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1253,33 +1253,33 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>榮成</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>新光-高雄</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>888</v>
+        <v>431</v>
       </c>
       <c r="F24" t="n">
-        <v>888</v>
+        <v>431</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.462857142857143</v>
+        <v>-0.2111111111111111</v>
       </c>
       <c r="H24" t="n">
-        <v>118.8584473608469</v>
+        <v>63.77938899956266</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1288,33 +1288,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>元大-虎尾</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-138</v>
       </c>
       <c r="E25" t="n">
-        <v>801</v>
+        <v>421</v>
       </c>
       <c r="F25" t="n">
-        <v>801</v>
+        <v>559</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.8337662337662337</v>
+        <v>-0.2111111111111111</v>
       </c>
       <c r="H25" t="n">
-        <v>123.2461265559245</v>
+        <v>63.77938899956266</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1323,33 +1323,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>第一金-高雄</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>559</v>
+        <v>806</v>
       </c>
       <c r="F26" t="n">
-        <v>559</v>
+        <v>806</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.8337662337662337</v>
+        <v>-0.2111111111111111</v>
       </c>
       <c r="H26" t="n">
-        <v>123.2461265559245</v>
+        <v>63.77938899956266</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1358,33 +1358,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>花旗環球</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>600</v>
+        <v>377</v>
       </c>
       <c r="E27" t="n">
-        <v>858</v>
+        <v>1957</v>
       </c>
       <c r="F27" t="n">
-        <v>258</v>
+        <v>1580</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.8337662337662337</v>
+        <v>1.353333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>123.2461265559245</v>
+        <v>151.9995078236083</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1393,33 +1393,33 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>上銀</t>
+          <t>中環</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大和國泰</t>
+          <t>元大-崇德</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="F28" t="n">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="G28" t="n">
-        <v>1.792</v>
+        <v>2.355704697986577</v>
       </c>
       <c r="H28" t="n">
-        <v>57.80561084498018</v>
+        <v>54.88317738436887</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1428,33 +1428,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>中環</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>新光-高雄</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="F29" t="n">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2027777777777778</v>
+        <v>2.355704697986577</v>
       </c>
       <c r="H29" t="n">
-        <v>63.79446010348211</v>
+        <v>54.88317738436887</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1463,33 +1463,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>中環</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>421</v>
+        <v>217</v>
       </c>
       <c r="F30" t="n">
-        <v>559</v>
+        <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2027777777777778</v>
+        <v>2.355704697986577</v>
       </c>
       <c r="H30" t="n">
-        <v>63.79446010348211</v>
+        <v>54.88317738436887</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1498,33 +1498,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="E31" t="n">
-        <v>806</v>
+        <v>11344</v>
       </c>
       <c r="F31" t="n">
-        <v>806</v>
+        <v>11824</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2027777777777778</v>
+        <v>9.286069651741293</v>
       </c>
       <c r="H31" t="n">
-        <v>63.79446010348211</v>
+        <v>702.0600111690344</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1533,33 +1533,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>花旗環球</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1957</v>
+        <v>493</v>
       </c>
       <c r="F32" t="n">
-        <v>1580</v>
+        <v>493</v>
       </c>
       <c r="G32" t="n">
-        <v>1.491111111111111</v>
+        <v>3.768595041322314</v>
       </c>
       <c r="H32" t="n">
-        <v>151.9959153158557</v>
+        <v>51.59437313160201</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1568,33 +1568,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中環</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>元大-崇德</t>
+          <t>大和國泰</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>249</v>
+        <v>2084</v>
       </c>
       <c r="F33" t="n">
-        <v>249</v>
+        <v>2084</v>
       </c>
       <c r="G33" t="n">
-        <v>2.613333333333333</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
-        <v>54.67558829365507</v>
+        <v>136.6230717765053</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1603,33 +1603,33 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中環</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1608</v>
       </c>
       <c r="E34" t="n">
-        <v>217</v>
+        <v>4539</v>
       </c>
       <c r="F34" t="n">
-        <v>217</v>
+        <v>6147</v>
       </c>
       <c r="G34" t="n">
-        <v>2.613333333333333</v>
+        <v>1.83442265795207</v>
       </c>
       <c r="H34" t="n">
-        <v>54.67558829365507</v>
+        <v>616.0614467313611</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1638,33 +1638,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>中環</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>217</v>
+        <v>4682</v>
       </c>
       <c r="F35" t="n">
-        <v>217</v>
+        <v>4682</v>
       </c>
       <c r="G35" t="n">
-        <v>2.613333333333333</v>
+        <v>1.83442265795207</v>
       </c>
       <c r="H35" t="n">
-        <v>54.67558829365507</v>
+        <v>616.0614467313611</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1673,33 +1673,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>中華電</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>11344</v>
+        <v>1111</v>
       </c>
       <c r="F36" t="n">
-        <v>11824</v>
+        <v>1111</v>
       </c>
       <c r="G36" t="n">
-        <v>9.633084577114428</v>
+        <v>3.981308411214953</v>
       </c>
       <c r="H36" t="n">
-        <v>701.9985460135714</v>
+        <v>144.4600866276239</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1708,33 +1708,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>建準</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="F37" t="n">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G37" t="n">
-        <v>3.725</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="H37" t="n">
-        <v>51.80846472157539</v>
+        <v>44.73287136507406</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1743,33 +1743,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>美律</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大和國泰</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2084</v>
+        <v>265</v>
       </c>
       <c r="F38" t="n">
-        <v>2084</v>
+        <v>265</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.4437086092715232</v>
+        <v>-1.585365853658537</v>
       </c>
       <c r="H38" t="n">
-        <v>147.4554366052533</v>
+        <v>35.83671860650445</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -1778,33 +1778,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>大毅</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1608</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>4539</v>
+        <v>1091</v>
       </c>
       <c r="F39" t="n">
-        <v>6147</v>
+        <v>1091</v>
       </c>
       <c r="G39" t="n">
-        <v>1.242424242424242</v>
+        <v>1.283088235294118</v>
       </c>
       <c r="H39" t="n">
-        <v>614.0973850862869</v>
+        <v>70.04224350560499</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -1813,33 +1813,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2486</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>一詮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>兆豐-大同</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>4682</v>
+        <v>216</v>
       </c>
       <c r="F40" t="n">
-        <v>4682</v>
+        <v>196</v>
       </c>
       <c r="G40" t="n">
-        <v>1.242424242424242</v>
+        <v>3.146666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>614.0973850862869</v>
+        <v>29.88025350544318</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -1848,33 +1848,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中華電</t>
+          <t>國建</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>凱基-台北</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1111</v>
+        <v>421</v>
       </c>
       <c r="F41" t="n">
-        <v>1111</v>
+        <v>421</v>
       </c>
       <c r="G41" t="n">
-        <v>3.523364485981308</v>
+        <v>6.7</v>
       </c>
       <c r="H41" t="n">
-        <v>144.5143686656714</v>
+        <v>48.38620998234617</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1883,33 +1883,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>建準</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-914</v>
       </c>
       <c r="E42" t="n">
-        <v>391</v>
+        <v>2545</v>
       </c>
       <c r="F42" t="n">
-        <v>391</v>
+        <v>3459</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06818181818181818</v>
+        <v>2.091764705882353</v>
       </c>
       <c r="H42" t="n">
-        <v>44.73287136507406</v>
+        <v>134.4973470768075</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1918,33 +1918,33 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>美律</t>
+          <t>長榮航太</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="F43" t="n">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.134146341463415</v>
+        <v>12.07692307692308</v>
       </c>
       <c r="H43" t="n">
-        <v>36.52118012072472</v>
+        <v>81.39616718487832</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -1953,33 +1953,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>大毅</t>
+          <t>長榮航太</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>凱基-台北</t>
+          <t>國泰證券</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1091</v>
+        <v>348</v>
       </c>
       <c r="F44" t="n">
-        <v>1091</v>
+        <v>348</v>
       </c>
       <c r="G44" t="n">
-        <v>1.295620437956204</v>
+        <v>12.07692307692308</v>
       </c>
       <c r="H44" t="n">
-        <v>69.80687788842444</v>
+        <v>81.39616718487832</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -1988,33 +1988,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>一詮</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>兆豐-大同</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="E45" t="n">
-        <v>216</v>
+        <v>925</v>
       </c>
       <c r="F45" t="n">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="G45" t="n">
-        <v>3.146666666666667</v>
+        <v>1.663492063492064</v>
       </c>
       <c r="H45" t="n">
-        <v>29.88025350544318</v>
+        <v>264.3549192741731</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2023,33 +2023,33 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>國建</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>永豐金-板新</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2299</v>
       </c>
       <c r="E46" t="n">
-        <v>421</v>
+        <v>4318</v>
       </c>
       <c r="F46" t="n">
-        <v>421</v>
+        <v>2019</v>
       </c>
       <c r="G46" t="n">
-        <v>6.555555555555555</v>
+        <v>1.663492063492064</v>
       </c>
       <c r="H46" t="n">
-        <v>48.10041579861863</v>
+        <v>264.3549192741731</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2058,33 +2058,33 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>大和國泰</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-914</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2545</v>
+        <v>2610</v>
       </c>
       <c r="F47" t="n">
-        <v>3459</v>
+        <v>2610</v>
       </c>
       <c r="G47" t="n">
-        <v>2.131764705882353</v>
+        <v>1.991803278688525</v>
       </c>
       <c r="H47" t="n">
-        <v>134.4940082587015</v>
+        <v>258.962503935715</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2093,33 +2093,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>長榮航太</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="E48" t="n">
-        <v>348</v>
+        <v>930</v>
       </c>
       <c r="F48" t="n">
-        <v>348</v>
+        <v>565</v>
       </c>
       <c r="G48" t="n">
-        <v>12.73684210526316</v>
+        <v>-0.7508532423208191</v>
       </c>
       <c r="H48" t="n">
-        <v>82.38298309281895</v>
+        <v>142.3670349653227</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2128,33 +2128,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>長榮航太</t>
+          <t>統一證</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>國泰證券</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>348</v>
+        <v>701</v>
       </c>
       <c r="F49" t="n">
-        <v>348</v>
+        <v>701</v>
       </c>
       <c r="G49" t="n">
-        <v>12.73684210526316</v>
+        <v>8.971830985915492</v>
       </c>
       <c r="H49" t="n">
-        <v>82.38298309281895</v>
+        <v>112.9352496953119</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2163,33 +2163,33 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>華南金</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="E50" t="n">
-        <v>925</v>
+        <v>2438</v>
       </c>
       <c r="F50" t="n">
-        <v>65</v>
+        <v>1594</v>
       </c>
       <c r="G50" t="n">
-        <v>1.682539682539683</v>
+        <v>20.65161290322581</v>
       </c>
       <c r="H50" t="n">
-        <v>264.3545814958778</v>
+        <v>463.3725688671595</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -2198,33 +2198,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>永豐金-板新</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2299</v>
+        <v>2336</v>
       </c>
       <c r="E51" t="n">
-        <v>4318</v>
+        <v>2413</v>
       </c>
       <c r="F51" t="n">
-        <v>2019</v>
+        <v>77</v>
       </c>
       <c r="G51" t="n">
-        <v>1.682539682539683</v>
+        <v>2.808353808353808</v>
       </c>
       <c r="H51" t="n">
-        <v>264.3545814958778</v>
+        <v>194.5154840265965</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2233,33 +2233,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大和國泰</t>
+          <t>華南永昌-大安</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2610</v>
+        <v>2140</v>
       </c>
       <c r="F52" t="n">
-        <v>2610</v>
+        <v>2140</v>
       </c>
       <c r="G52" t="n">
-        <v>2.105691056910569</v>
+        <v>2.808353808353808</v>
       </c>
       <c r="H52" t="n">
-        <v>257.9421339671808</v>
+        <v>194.5154840265965</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2268,33 +2268,33 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>365</v>
+        <v>872</v>
       </c>
       <c r="E53" t="n">
-        <v>930</v>
+        <v>1705</v>
       </c>
       <c r="F53" t="n">
-        <v>565</v>
+        <v>833</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.4761904761904762</v>
+        <v>9.60377358490566</v>
       </c>
       <c r="H53" t="n">
-        <v>141.8009869817114</v>
+        <v>352.6877350704229</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2303,33 +2303,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>統一證</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="E54" t="n">
-        <v>701</v>
+        <v>1705</v>
       </c>
       <c r="F54" t="n">
-        <v>701</v>
+        <v>833</v>
       </c>
       <c r="G54" t="n">
-        <v>9.027777777777779</v>
+        <v>9.60377358490566</v>
       </c>
       <c r="H54" t="n">
-        <v>112.1260573580207</v>
+        <v>352.6877350704229</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -2338,33 +2338,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>華南金</t>
+          <t>凱基金</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>群益金鼎-西松</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>844</v>
+        <v>-11</v>
       </c>
       <c r="E55" t="n">
-        <v>2438</v>
+        <v>8414</v>
       </c>
       <c r="F55" t="n">
-        <v>1594</v>
+        <v>8425</v>
       </c>
       <c r="G55" t="n">
-        <v>21.16233766233766</v>
+        <v>4.762845849802371</v>
       </c>
       <c r="H55" t="n">
-        <v>464.8492266741955</v>
+        <v>465.2140105476537</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2373,33 +2373,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>台新新光金</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>中國信託</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2336</v>
+        <v>5367</v>
       </c>
       <c r="E56" t="n">
-        <v>2413</v>
+        <v>32273</v>
       </c>
       <c r="F56" t="n">
-        <v>77</v>
+        <v>26906</v>
       </c>
       <c r="G56" t="n">
-        <v>2.997542997542998</v>
+        <v>14.73601147776184</v>
       </c>
       <c r="H56" t="n">
-        <v>194.5208778386797</v>
+        <v>1638.296346426883</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2408,33 +2408,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>台新新光金</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>華南永昌-大安</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="E57" t="n">
-        <v>2140</v>
+        <v>9949</v>
       </c>
       <c r="F57" t="n">
-        <v>2140</v>
+        <v>8501</v>
       </c>
       <c r="G57" t="n">
-        <v>2.997542997542998</v>
+        <v>14.73601147776184</v>
       </c>
       <c r="H57" t="n">
-        <v>194.5208778386797</v>
+        <v>1638.296346426883</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2443,33 +2443,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>台新新光金</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>872</v>
+        <v>1448</v>
       </c>
       <c r="E58" t="n">
-        <v>1705</v>
+        <v>9949</v>
       </c>
       <c r="F58" t="n">
-        <v>833</v>
+        <v>8501</v>
       </c>
       <c r="G58" t="n">
-        <v>9.554502369668246</v>
+        <v>14.73601147776184</v>
       </c>
       <c r="H58" t="n">
-        <v>353.5264125865263</v>
+        <v>1638.296346426883</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -2478,33 +2478,33 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2887I</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>2887I台新新光辛特</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>中國信託-新竹</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>872</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1705</v>
+        <v>603</v>
       </c>
       <c r="F59" t="n">
-        <v>833</v>
+        <v>603</v>
       </c>
       <c r="G59" t="n">
-        <v>9.554502369668246</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H59" t="n">
-        <v>353.5264125865263</v>
+        <v>117.0275306172631</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2513,33 +2513,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2887I</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>凱基金</t>
+          <t>2887I台新新光辛特</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>群益金鼎-西松</t>
+          <t>國泰</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>8414</v>
+        <v>427</v>
       </c>
       <c r="F60" t="n">
-        <v>8425</v>
+        <v>427</v>
       </c>
       <c r="G60" t="n">
-        <v>4.582345191040843</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H60" t="n">
-        <v>465.2765237363037</v>
+        <v>117.0275306172631</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2548,33 +2548,33 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2887I</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>台新新光金</t>
+          <t>2887I台新新光辛特</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中國信託</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5367</v>
+        <v>-280</v>
       </c>
       <c r="E61" t="n">
-        <v>32273</v>
+        <v>620</v>
       </c>
       <c r="F61" t="n">
-        <v>26906</v>
+        <v>900</v>
       </c>
       <c r="G61" t="n">
-        <v>18.43371757925072</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H61" t="n">
-        <v>1637.740460496297</v>
+        <v>117.0275306172631</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2583,33 +2583,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>台新新光金</t>
+          <t>國票金</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1448</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>9949</v>
+        <v>439</v>
       </c>
       <c r="F62" t="n">
-        <v>8501</v>
+        <v>439</v>
       </c>
       <c r="G62" t="n">
-        <v>18.43371757925072</v>
+        <v>1.268041237113402</v>
       </c>
       <c r="H62" t="n">
-        <v>1637.740460496297</v>
+        <v>70.92976506492143</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2618,33 +2618,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>台新新光金</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1448</v>
+        <v>-1667</v>
       </c>
       <c r="E63" t="n">
-        <v>9949</v>
+        <v>2316</v>
       </c>
       <c r="F63" t="n">
-        <v>8501</v>
+        <v>3983</v>
       </c>
       <c r="G63" t="n">
-        <v>18.43371757925072</v>
+        <v>13.27927927927928</v>
       </c>
       <c r="H63" t="n">
-        <v>1637.740460496297</v>
+        <v>395.8090670737075</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2653,33 +2653,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2887I</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2887I台新新光辛特</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中國信託-新竹</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-1667</v>
       </c>
       <c r="E64" t="n">
-        <v>603</v>
+        <v>2316</v>
       </c>
       <c r="F64" t="n">
-        <v>603</v>
+        <v>3983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5374149659863946</v>
+        <v>13.27927927927928</v>
       </c>
       <c r="H64" t="n">
-        <v>116.9716785830318</v>
+        <v>395.8090670737075</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -2688,33 +2688,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2887I</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2887I台新新光辛特</t>
+          <t>遠百</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>國泰</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="F65" t="n">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5374149659863946</v>
+        <v>4.035294117647059</v>
       </c>
       <c r="H65" t="n">
-        <v>116.9716785830318</v>
+        <v>103.4842347158923</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2723,33 +2723,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2887I</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2887I台新新光辛特</t>
+          <t>遠百</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>群益金鼎</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>620</v>
+        <v>736</v>
       </c>
       <c r="F66" t="n">
-        <v>900</v>
+        <v>736</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5374149659863946</v>
+        <v>4.035294117647059</v>
       </c>
       <c r="H66" t="n">
-        <v>116.9716785830318</v>
+        <v>103.4842347158923</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2758,33 +2758,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>國票金</t>
+          <t>神基</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="F67" t="n">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="G67" t="n">
-        <v>1.702127659574468</v>
+        <v>10.35483870967742</v>
       </c>
       <c r="H67" t="n">
-        <v>72.01505663763074</v>
+        <v>48.59667230520814</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2793,33 +2793,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2890</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>威健</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>凱基-台南</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-1667</v>
+        <v>191</v>
       </c>
       <c r="E68" t="n">
-        <v>2316</v>
+        <v>699</v>
       </c>
       <c r="F68" t="n">
-        <v>3983</v>
+        <v>508</v>
       </c>
       <c r="G68" t="n">
-        <v>9.924444444444445</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>395.316203204312</v>
+        <v>95.46469343326721</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -2828,33 +2828,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2890</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>文曄</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-1667</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2316</v>
+        <v>448</v>
       </c>
       <c r="F69" t="n">
-        <v>3983</v>
+        <v>448</v>
       </c>
       <c r="G69" t="n">
-        <v>9.924444444444445</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="H69" t="n">
-        <v>395.316203204312</v>
+        <v>159.1955660038749</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -2863,33 +2863,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>遠百</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G70" t="n">
-        <v>4.166666666666667</v>
+        <v>3.591549295774648</v>
       </c>
       <c r="H70" t="n">
-        <v>104.0996780585202</v>
+        <v>113.7589654193448</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -2898,33 +2898,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>遠百</t>
+          <t>益登</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>群益金鼎</t>
+          <t>永豐金-信義</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>736</v>
+        <v>438</v>
       </c>
       <c r="F71" t="n">
-        <v>736</v>
+        <v>438</v>
       </c>
       <c r="G71" t="n">
-        <v>4.166666666666667</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="H71" t="n">
-        <v>104.0996780585202</v>
+        <v>28.75040477709688</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -2933,33 +2933,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>潤泰全</t>
+          <t>日電貿</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>新光-桃園</t>
+          <t>凱基-信義</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>829</v>
+        <v>302</v>
       </c>
       <c r="F72" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2592592592592592</v>
+        <v>2.576271186440678</v>
       </c>
       <c r="H72" t="n">
-        <v>89.95205060915494</v>
+        <v>33.19669446591968</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -2968,33 +2968,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>神基</t>
+          <t>華擎</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F73" t="n">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="G73" t="n">
-        <v>9.84375</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="H73" t="n">
-        <v>47.89377316587738</v>
+        <v>48.80909794626451</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3003,33 +3003,33 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>威健</t>
+          <t>湧德</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>凱基-台南</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>699</v>
+        <v>1371</v>
       </c>
       <c r="F74" t="n">
-        <v>508</v>
+        <v>1371</v>
       </c>
       <c r="G74" t="n">
-        <v>1.515151515151515</v>
+        <v>7.605504587155964</v>
       </c>
       <c r="H74" t="n">
-        <v>95.49438041045495</v>
+        <v>136.1743270327846</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3038,33 +3038,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>文曄</t>
+          <t>湧德</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>448</v>
+        <v>1371</v>
       </c>
       <c r="F75" t="n">
-        <v>448</v>
+        <v>1371</v>
       </c>
       <c r="G75" t="n">
-        <v>9.03921568627451</v>
+        <v>7.605504587155964</v>
       </c>
       <c r="H75" t="n">
-        <v>159.175621347531</v>
+        <v>136.1743270327846</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3073,33 +3073,33 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>營邦</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>元大-內湖</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>364</v>
+        <v>681</v>
       </c>
       <c r="F76" t="n">
-        <v>364</v>
+        <v>681</v>
       </c>
       <c r="G76" t="n">
-        <v>3.591549295774648</v>
+        <v>11.04081632653061</v>
       </c>
       <c r="H76" t="n">
-        <v>113.7589654193448</v>
+        <v>99.69452492148065</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3108,33 +3108,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>益登</t>
+          <t>大聯大</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>永豐金-信義</t>
+          <t>合庫</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>438</v>
+        <v>797</v>
       </c>
       <c r="F77" t="n">
-        <v>438</v>
+        <v>777</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1766233766233766</v>
+        <v>6.136986301369863</v>
       </c>
       <c r="H77" t="n">
-        <v>28.76313058895113</v>
+        <v>237.2526966869627</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3143,33 +3143,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>日電貿</t>
+          <t>大聯大</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>凱基-信義</t>
+          <t>合庫證券</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>302</v>
+        <v>797</v>
       </c>
       <c r="F78" t="n">
-        <v>302</v>
+        <v>777</v>
       </c>
       <c r="G78" t="n">
-        <v>2.550335570469799</v>
+        <v>6.136986301369863</v>
       </c>
       <c r="H78" t="n">
-        <v>33.04051919958162</v>
+        <v>237.2526966869627</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3178,33 +3178,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>聯鈞</t>
+          <t>大聯大</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>兆豐</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="E79" t="n">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F79" t="n">
-        <v>773</v>
+        <v>399</v>
       </c>
       <c r="G79" t="n">
-        <v>4.874172185430464</v>
+        <v>6.136986301369863</v>
       </c>
       <c r="H79" t="n">
-        <v>109.797771964994</v>
+        <v>237.2526966869627</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3213,33 +3213,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>聯鈞</t>
+          <t>合勤控</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>兆豐證券</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>773</v>
+        <v>319</v>
       </c>
       <c r="F80" t="n">
-        <v>773</v>
+        <v>319</v>
       </c>
       <c r="G80" t="n">
-        <v>4.874172185430464</v>
+        <v>3.082474226804124</v>
       </c>
       <c r="H80" t="n">
-        <v>109.797771964994</v>
+        <v>34.54124047880205</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -3248,33 +3248,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>華擎</t>
+          <t>神達</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-491</v>
       </c>
       <c r="E81" t="n">
-        <v>216</v>
+        <v>1292</v>
       </c>
       <c r="F81" t="n">
-        <v>216</v>
+        <v>1783</v>
       </c>
       <c r="G81" t="n">
-        <v>5.482758620689655</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="H81" t="n">
-        <v>47.93047098935168</v>
+        <v>103.2403757716402</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3283,33 +3283,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>湧德</t>
+          <t>神達</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1371</v>
+        <v>306</v>
       </c>
       <c r="F82" t="n">
-        <v>1371</v>
+        <v>306</v>
       </c>
       <c r="G82" t="n">
-        <v>7.368181818181818</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="H82" t="n">
-        <v>135.5745288181339</v>
+        <v>103.2403757716402</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3318,33 +3318,33 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>湧德</t>
+          <t>神達</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E83" t="n">
-        <v>1371</v>
+        <v>1152</v>
       </c>
       <c r="F83" t="n">
-        <v>1371</v>
+        <v>246</v>
       </c>
       <c r="G83" t="n">
-        <v>7.368181818181818</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="H83" t="n">
-        <v>135.5745288181339</v>
+        <v>103.2403757716402</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -3353,33 +3353,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>營邦</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>元大-內湖</t>
+          <t>元大</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1048</v>
       </c>
       <c r="E84" t="n">
-        <v>681</v>
+        <v>1514</v>
       </c>
       <c r="F84" t="n">
-        <v>681</v>
+        <v>2562</v>
       </c>
       <c r="G84" t="n">
-        <v>11.04081632653061</v>
+        <v>1.848648648648649</v>
       </c>
       <c r="H84" t="n">
-        <v>99.69452492148065</v>
+        <v>301.7373584593259</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3388,33 +3388,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大聯大</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>合庫</t>
+          <t>元大證券</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>-1048</v>
       </c>
       <c r="E85" t="n">
-        <v>797</v>
+        <v>1514</v>
       </c>
       <c r="F85" t="n">
-        <v>777</v>
+        <v>2562</v>
       </c>
       <c r="G85" t="n">
-        <v>6.541666666666667</v>
+        <v>1.848648648648649</v>
       </c>
       <c r="H85" t="n">
-        <v>238.894162286666</v>
+        <v>301.7373584593259</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -3423,33 +3423,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>大聯大</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>合庫證券</t>
+          <t>凱基-台北</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>797</v>
+        <v>1278</v>
       </c>
       <c r="F86" t="n">
-        <v>777</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="n">
-        <v>6.541666666666667</v>
+        <v>1.848648648648649</v>
       </c>
       <c r="H86" t="n">
-        <v>238.894162286666</v>
+        <v>301.7373584593259</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -3458,33 +3458,33 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>大聯大</t>
+          <t>浩鼎</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>群益金鼎-館前</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>763</v>
+        <v>228</v>
       </c>
       <c r="F87" t="n">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="G87" t="n">
-        <v>6.541666666666667</v>
+        <v>5.119047619047619</v>
       </c>
       <c r="H87" t="n">
-        <v>238.894162286666</v>
+        <v>35.75335725730395</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -3493,33 +3493,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>合勤控</t>
+          <t>合一</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>319</v>
+        <v>503</v>
       </c>
       <c r="F88" t="n">
-        <v>319</v>
+        <v>503</v>
       </c>
       <c r="G88" t="n">
-        <v>3.082474226804124</v>
+        <v>9.053571428571429</v>
       </c>
       <c r="H88" t="n">
-        <v>34.54124047880205</v>
+        <v>70.58571054021864</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -3528,33 +3528,33 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>神達</t>
+          <t>遠傳</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>新加坡商瑞銀</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-491</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1292</v>
+        <v>316</v>
       </c>
       <c r="F89" t="n">
-        <v>1783</v>
+        <v>316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2252873563218391</v>
+        <v>2.357894736842105</v>
       </c>
       <c r="H89" t="n">
-        <v>103.3786820076481</v>
+        <v>83.78542957034162</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -3563,33 +3563,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>神達</t>
+          <t>遠傳</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="F90" t="n">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2252873563218391</v>
+        <v>2.357894736842105</v>
       </c>
       <c r="H90" t="n">
-        <v>103.3786820076481</v>
+        <v>83.78542957034162</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -3598,33 +3598,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4991</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>神達</t>
+          <t>環宇-KY</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>凱基-信義</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1152</v>
+        <v>215</v>
       </c>
       <c r="F91" t="n">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2252873563218391</v>
+        <v>2.472972972972973</v>
       </c>
       <c r="H91" t="n">
-        <v>103.3786820076481</v>
+        <v>33.59681286782976</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -3633,33 +3633,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>5351</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>鈺創</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>元大</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-1048</v>
+        <v>-400</v>
       </c>
       <c r="E92" t="n">
-        <v>1514</v>
+        <v>283</v>
       </c>
       <c r="F92" t="n">
-        <v>2562</v>
+        <v>683</v>
       </c>
       <c r="G92" t="n">
-        <v>1.772972972972973</v>
+        <v>1.627906976744186</v>
       </c>
       <c r="H92" t="n">
-        <v>301.7371486480669</v>
+        <v>28.28098603005963</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -3668,33 +3668,33 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>5371</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>中光電</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>元大證券</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-1048</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1514</v>
+        <v>401</v>
       </c>
       <c r="F93" t="n">
-        <v>2562</v>
+        <v>401</v>
       </c>
       <c r="G93" t="n">
-        <v>1.772972972972973</v>
+        <v>-0.4230769230769231</v>
       </c>
       <c r="H93" t="n">
-        <v>301.7371486480669</v>
+        <v>33.75347532984643</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -3703,33 +3703,33 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>凱基-台北</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1278</v>
+        <v>375</v>
       </c>
       <c r="F94" t="n">
-        <v>1278</v>
+        <v>375</v>
       </c>
       <c r="G94" t="n">
-        <v>1.772972972972973</v>
+        <v>-1.235576923076923</v>
       </c>
       <c r="H94" t="n">
-        <v>301.7371486480669</v>
+        <v>77.81352218871956</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -3738,33 +3738,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>浩鼎</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>群益金鼎-館前</t>
+          <t>美林</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="E95" t="n">
-        <v>228</v>
+        <v>449</v>
       </c>
       <c r="F95" t="n">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="G95" t="n">
-        <v>5.804878048780488</v>
+        <v>-1.235576923076923</v>
       </c>
       <c r="H95" t="n">
-        <v>35.91672278493343</v>
+        <v>77.81352218871956</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -3773,33 +3773,33 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>合一</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>永豐金</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>503</v>
+        <v>1323</v>
       </c>
       <c r="F96" t="n">
-        <v>503</v>
+        <v>1323</v>
       </c>
       <c r="G96" t="n">
-        <v>8.464285714285714</v>
+        <v>9.043478260869565</v>
       </c>
       <c r="H96" t="n">
-        <v>70.51987838016488</v>
+        <v>231.5600559176118</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -3808,33 +3808,33 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>遠傳</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>新加坡商瑞銀</t>
+          <t>永豐金證券</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>316</v>
+        <v>1323</v>
       </c>
       <c r="F97" t="n">
-        <v>316</v>
+        <v>1323</v>
       </c>
       <c r="G97" t="n">
-        <v>2.357894736842105</v>
+        <v>9.043478260869565</v>
       </c>
       <c r="H97" t="n">
-        <v>83.78542957034162</v>
+        <v>231.5600559176118</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -3843,33 +3843,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>6120</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>遠傳</t>
+          <t>達運</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>永豐金-南京</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="F98" t="n">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="G98" t="n">
-        <v>2.357894736842105</v>
+        <v>6.576923076923077</v>
       </c>
       <c r="H98" t="n">
-        <v>83.78542957034162</v>
+        <v>36.79372610300548</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
@@ -3878,33 +3878,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>6147</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>環宇-KY</t>
+          <t>頎邦</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>凱基-信義</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E99" t="n">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="F99" t="n">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="G99" t="n">
-        <v>3.22972972972973</v>
+        <v>1.240506329113924</v>
       </c>
       <c r="H99" t="n">
-        <v>34.1662123001607</v>
+        <v>81.73208502673394</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -3913,33 +3913,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5351</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>鈺創</t>
+          <t>精成科</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>283</v>
+        <v>741</v>
       </c>
       <c r="F100" t="n">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="G100" t="n">
-        <v>1.350230414746544</v>
+        <v>3.098765432098765</v>
       </c>
       <c r="H100" t="n">
-        <v>28.22982584211764</v>
+        <v>75.00833989875387</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -3948,33 +3948,33 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5371</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>中光電</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>宏遠</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="F101" t="n">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3140495867768595</v>
+        <v>5.149532710280374</v>
       </c>
       <c r="H101" t="n">
-        <v>33.82961035646824</v>
+        <v>101.4341317772386</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -3983,33 +3983,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>宏遠證券</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="F102" t="n">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.155339805825243</v>
+        <v>5.149532710280374</v>
       </c>
       <c r="H102" t="n">
-        <v>78.18786098553744</v>
+        <v>101.4341317772386</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -4018,33 +4018,33 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>晶焱</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>國泰-敦南</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>343</v>
+        <v>-358</v>
       </c>
       <c r="E103" t="n">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="F103" t="n">
-        <v>106</v>
+        <v>908</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.155339805825243</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="H103" t="n">
-        <v>78.18786098553744</v>
+        <v>53.96261636769584</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -4053,12 +4053,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>富強鑫</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4067,19 +4067,19 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-636</v>
       </c>
       <c r="E104" t="n">
-        <v>1323</v>
+        <v>288</v>
       </c>
       <c r="F104" t="n">
-        <v>1323</v>
+        <v>924</v>
       </c>
       <c r="G104" t="n">
-        <v>9.078947368421053</v>
+        <v>2.311475409836066</v>
       </c>
       <c r="H104" t="n">
-        <v>232.5820873164463</v>
+        <v>49.14594254747337</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4088,12 +4088,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>富強鑫</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4102,19 +4102,19 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-636</v>
       </c>
       <c r="E105" t="n">
-        <v>1323</v>
+        <v>288</v>
       </c>
       <c r="F105" t="n">
-        <v>1323</v>
+        <v>924</v>
       </c>
       <c r="G105" t="n">
-        <v>9.078947368421053</v>
+        <v>2.311475409836066</v>
       </c>
       <c r="H105" t="n">
-        <v>232.5820873164463</v>
+        <v>49.14594254747337</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -4123,33 +4123,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>6645</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>達運</t>
+          <t>金萬林-創</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>永豐金-南京</t>
+          <t>台新-建北</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F106" t="n">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="G106" t="n">
-        <v>6.576923076923077</v>
+        <v>4.304347826086956</v>
       </c>
       <c r="H106" t="n">
-        <v>36.79372610300548</v>
+        <v>77.29602764261604</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -4158,33 +4158,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6147</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>頎邦</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>181</v>
+        <v>-5311</v>
       </c>
       <c r="E107" t="n">
-        <v>299</v>
+        <v>4567</v>
       </c>
       <c r="F107" t="n">
-        <v>118</v>
+        <v>9878</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8734177215189873</v>
+        <v>-0.4316807738814994</v>
       </c>
       <c r="H107" t="n">
-        <v>81.80282220205306</v>
+        <v>414.2079183509816</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -4193,33 +4193,33 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>精成科</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>港商野村</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-2113</v>
       </c>
       <c r="E108" t="n">
-        <v>741</v>
+        <v>4039</v>
       </c>
       <c r="F108" t="n">
-        <v>741</v>
+        <v>6152</v>
       </c>
       <c r="G108" t="n">
-        <v>3.098765432098765</v>
+        <v>-0.4316807738814994</v>
       </c>
       <c r="H108" t="n">
-        <v>75.0083398987539</v>
+        <v>414.2079183509816</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -4228,33 +4228,33 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>宏遠</t>
+          <t>美商高盛</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-20599</v>
       </c>
       <c r="E109" t="n">
-        <v>338</v>
+        <v>7659</v>
       </c>
       <c r="F109" t="n">
-        <v>338</v>
+        <v>28258</v>
       </c>
       <c r="G109" t="n">
-        <v>5.064814814814815</v>
+        <v>-0.4316807738814994</v>
       </c>
       <c r="H109" t="n">
-        <v>100.9628666029034</v>
+        <v>414.2079183509816</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -4263,33 +4263,33 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>康霈*</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>宏遠證券</t>
+          <t>摩根大通</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="E110" t="n">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="F110" t="n">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="G110" t="n">
-        <v>5.064814814814815</v>
+        <v>5.793650793650793</v>
       </c>
       <c r="H110" t="n">
-        <v>100.9628666029034</v>
+        <v>64.90493264473837</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -4298,33 +4298,33 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6936</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>晶焱</t>
+          <t>永鴻生技</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>國泰-敦南</t>
+          <t>凱基-城中</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-358</v>
+        <v>314</v>
       </c>
       <c r="E111" t="n">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="F111" t="n">
-        <v>908</v>
+        <v>342</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4628099173553719</v>
+        <v>5.641509433962264</v>
       </c>
       <c r="H111" t="n">
-        <v>53.6372136553087</v>
+        <v>92.23696371087283</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -4333,33 +4333,33 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>富強鑫</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>凱基</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-636</v>
+        <v>169</v>
       </c>
       <c r="E112" t="n">
-        <v>288</v>
+        <v>572</v>
       </c>
       <c r="F112" t="n">
-        <v>924</v>
+        <v>403</v>
       </c>
       <c r="G112" t="n">
-        <v>2.173553719008265</v>
+        <v>2.83495145631068</v>
       </c>
       <c r="H112" t="n">
-        <v>49.32657797542659</v>
+        <v>83.34997054557728</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -4368,33 +4368,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>8926</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>富強鑫</t>
+          <t>台汽電</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>永豐金證券</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-636</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="F113" t="n">
-        <v>924</v>
+        <v>426</v>
       </c>
       <c r="G113" t="n">
-        <v>2.173553719008265</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
-        <v>49.32657797542659</v>
+        <v>73.83572499619872</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -4403,33 +4403,33 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6645</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>金萬林-創</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>台新-建北</t>
+          <t>合庫</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>345</v>
+        <v>596</v>
       </c>
       <c r="F114" t="n">
-        <v>345</v>
+        <v>596</v>
       </c>
       <c r="G114" t="n">
-        <v>3.875</v>
+        <v>12.84444444444444</v>
       </c>
       <c r="H114" t="n">
-        <v>75.62626211666904</v>
+        <v>104.2662873447318</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -4438,33 +4438,33 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>合庫證券</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-5311</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>4567</v>
+        <v>596</v>
       </c>
       <c r="F115" t="n">
-        <v>9878</v>
+        <v>596</v>
       </c>
       <c r="G115" t="n">
-        <v>2.20918984280532</v>
+        <v>12.84444444444444</v>
       </c>
       <c r="H115" t="n">
-        <v>412.133880093903</v>
+        <v>104.2662873447318</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -4473,33 +4473,33 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>豐泰</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>港商野村</t>
+          <t>大和國泰</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-2113</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>4039</v>
+        <v>418</v>
       </c>
       <c r="F116" t="n">
-        <v>6152</v>
+        <v>418</v>
       </c>
       <c r="G116" t="n">
-        <v>2.20918984280532</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="H116" t="n">
-        <v>412.133880093903</v>
+        <v>139.2555604315717</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -4508,33 +4508,33 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>美商高盛</t>
+          <t>富邦</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-20599</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>7659</v>
+        <v>260</v>
       </c>
       <c r="F117" t="n">
-        <v>28258</v>
+        <v>260</v>
       </c>
       <c r="G117" t="n">
-        <v>2.20918984280532</v>
+        <v>15.30769230769231</v>
       </c>
       <c r="H117" t="n">
-        <v>412.133880093903</v>
+        <v>76.67634275616918</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -4543,315 +4543,35 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6919</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>康霈*</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>摩根大通</t>
+          <t>富邦證券</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>473</v>
+        <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="G118" t="n">
-        <v>5.876923076923077</v>
+        <v>15.30769230769231</v>
       </c>
       <c r="H118" t="n">
-        <v>63.89945903827837</v>
+        <v>76.67634275616918</v>
       </c>
       <c r="I118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>6936</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>永鴻生技</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>凱基-城中</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>314</v>
-      </c>
-      <c r="E119" t="n">
-        <v>656</v>
-      </c>
-      <c r="F119" t="n">
-        <v>342</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5.814814814814815</v>
-      </c>
-      <c r="H119" t="n">
-        <v>91.37153556895719</v>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>8150</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>南茂</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>凱基</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>169</v>
-      </c>
-      <c r="E120" t="n">
-        <v>572</v>
-      </c>
-      <c r="F120" t="n">
-        <v>403</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.701923076923077</v>
-      </c>
-      <c r="H120" t="n">
-        <v>82.95546586364409</v>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>8926</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>台汽電</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>台灣摩根士丹利</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>426</v>
-      </c>
-      <c r="F121" t="n">
-        <v>426</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4.020408163265306</v>
-      </c>
-      <c r="H121" t="n">
-        <v>73.2292319238927</v>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>9907</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>統一實</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>合庫</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>596</v>
-      </c>
-      <c r="F122" t="n">
-        <v>596</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.84444444444444</v>
-      </c>
-      <c r="H122" t="n">
-        <v>104.2662873447318</v>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>9907</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>統一實</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>合庫證券</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>596</v>
-      </c>
-      <c r="F123" t="n">
-        <v>596</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.84444444444444</v>
-      </c>
-      <c r="H123" t="n">
-        <v>104.2662873447318</v>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>9910</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>豐泰</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>大和國泰</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>418</v>
-      </c>
-      <c r="F124" t="n">
-        <v>418</v>
-      </c>
-      <c r="G124" t="n">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="H124" t="n">
-        <v>139.2555604315717</v>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>9939</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>宏全</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>富邦</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>260</v>
-      </c>
-      <c r="F125" t="n">
-        <v>260</v>
-      </c>
-      <c r="G125" t="n">
-        <v>15.30769230769231</v>
-      </c>
-      <c r="H125" t="n">
-        <v>76.67634275616918</v>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>9939</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>宏全</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>富邦證券</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>260</v>
-      </c>
-      <c r="F126" t="n">
-        <v>260</v>
-      </c>
-      <c r="G126" t="n">
-        <v>15.30769230769231</v>
-      </c>
-      <c r="H126" t="n">
-        <v>76.67634275616918</v>
-      </c>
-      <c r="I126" t="b">
         <v>1</v>
       </c>
     </row>
